--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngiordano\OneDrive - Kansas State University\Desktop\KSU-WHEAT-APP-main-2.0\IDataField-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9B017C-49C2-42BD-AFC9-DAFEE2A1775B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9945D-90A6-4DCD-8104-AB748DE1690C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LABELS_INPUT" sheetId="1" r:id="rId1"/>
-    <sheet name="Trials And Locations" sheetId="2" r:id="rId2"/>
-    <sheet name="Activities" sheetId="3" r:id="rId3"/>
-    <sheet name="Phenology" sheetId="4" r:id="rId4"/>
-    <sheet name="Plant_Traits" sheetId="7" r:id="rId5"/>
-    <sheet name="Columns" sheetId="5" r:id="rId6"/>
-    <sheet name="Columns names" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="Trials And Locations" sheetId="2" r:id="rId3"/>
+    <sheet name="Activities" sheetId="3" r:id="rId4"/>
+    <sheet name="Phenology" sheetId="4" r:id="rId5"/>
+    <sheet name="Plant_Traits" sheetId="7" r:id="rId6"/>
+    <sheet name="Columns" sheetId="5" r:id="rId7"/>
+    <sheet name="Column Description" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LABELS_INPUT!$A$1:$I$310</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trials And Locations'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Trials And Locations'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="285">
   <si>
     <t>YEAR</t>
   </si>
@@ -878,6 +879,18 @@
   </si>
   <si>
     <t>F11.4</t>
+  </si>
+  <si>
+    <t>GY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grain yield </t>
+  </si>
+  <si>
+    <t>Stand count spring</t>
+  </si>
+  <si>
+    <t>SCS</t>
   </si>
 </sst>
 </file>
@@ -2421,9 +2434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13028,6 +13041,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E757A881-E26C-4178-B684-57531D1649A8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -13841,12 +13866,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF72BDF-E972-4DFC-8739-BD42FEEE886B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13895,17 +13920,25 @@
         <v>220</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF5B107-C584-4390-A6DE-85AC76E074C1}">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14003,12 +14036,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF0237-5540-47AA-B2E5-9CB697CBA0FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14053,7 +14086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312657E8-3DEA-4EE1-BA23-8DC32180507F}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -14218,18 +14251,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CCF87D-BB28-48CE-9ACE-15B308A318FF}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -14238,6 +14271,14 @@
       </c>
       <c r="B1" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -14246,6 +14287,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004985193A87153942845D241572937CE5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41d807227133e919f3755c54a0ed2601">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff" xmlns:ns4="f703b2de-b014-43d1-91b4-4178b52ec481" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28768a436f2ded89381638814bc7efce" ns3:_="" ns4:_="">
     <xsd:import namespace="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff"/>
@@ -14486,24 +14544,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E2AB2F-6E1F-424C-8E97-B29CFF39A56D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309818C2-C029-41E7-90B5-C5C7A9CD1F23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3154782E-A8FB-4B5D-908B-67EB26D31F14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14520,22 +14579,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309818C2-C029-41E7-90B5-C5C7A9CD1F23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E2AB2F-6E1F-424C-8E97-B29CFF39A56D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngiordano\OneDrive - Kansas State University\Desktop\KSU-WHEAT-APP-main-2.0\IDataField-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9945D-90A6-4DCD-8104-AB748DE1690C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB207D7-A807-4E08-96C5-1D1EC69B6721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LABELS_INPUT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="286">
   <si>
     <t>YEAR</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>SCS</t>
+  </si>
+  <si>
+    <t>PS, F3</t>
   </si>
 </sst>
 </file>
@@ -2111,6 +2114,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table4" displayName="Table4" ref="A1:J310" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+  <autoFilter ref="A1:J310" xr:uid="{401C5918-DDE0-4BD6-959C-4B9D5E247AD9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PBIO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="YEAR" dataDxfId="19" totalsRowDxfId="18"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Trial" dataDxfId="17" totalsRowDxfId="16"/>
@@ -2434,9 +2444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J310"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2486,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>22</v>
       </c>
@@ -2522,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>22</v>
       </c>
@@ -2558,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>22</v>
       </c>
@@ -2594,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>22</v>
       </c>
@@ -2630,7 +2640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>22</v>
       </c>
@@ -2666,7 +2676,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>22</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>22</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>22</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>22</v>
       </c>
@@ -2810,7 +2820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>22</v>
       </c>
@@ -2846,7 +2856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>22</v>
       </c>
@@ -2880,7 +2890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>22</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>22</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>22</v>
       </c>
@@ -2988,7 +2998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>22</v>
       </c>
@@ -3024,7 +3034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>22</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>22</v>
       </c>
@@ -3096,7 +3106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>22</v>
       </c>
@@ -3132,7 +3142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>22</v>
       </c>
@@ -3168,7 +3178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>22</v>
       </c>
@@ -3204,7 +3214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>22</v>
       </c>
@@ -3240,7 +3250,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -3276,7 +3286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>22</v>
       </c>
@@ -3348,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>22</v>
       </c>
@@ -3384,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>22</v>
       </c>
@@ -3420,7 +3430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>22</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>22</v>
       </c>
@@ -3492,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>22</v>
       </c>
@@ -3528,7 +3538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -3564,7 +3574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>22</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>22</v>
       </c>
@@ -3636,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <v>22</v>
       </c>
@@ -3672,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <v>22</v>
       </c>
@@ -3708,7 +3718,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>22</v>
       </c>
@@ -3744,7 +3754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <v>22</v>
       </c>
@@ -3780,7 +3790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
         <v>22</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16">
         <v>22</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16">
         <v>22</v>
       </c>
@@ -3888,7 +3898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>22</v>
       </c>
@@ -3924,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>22</v>
       </c>
@@ -3960,7 +3970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>22</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>22</v>
       </c>
@@ -4032,7 +4042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
         <v>22</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>22</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>22</v>
       </c>
@@ -4140,7 +4150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
         <v>22</v>
       </c>
@@ -4176,7 +4186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
         <v>22</v>
       </c>
@@ -4212,7 +4222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
         <v>22</v>
       </c>
@@ -4248,7 +4258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
         <v>22</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
         <v>22</v>
       </c>
@@ -4320,7 +4330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>22</v>
       </c>
@@ -4350,7 +4360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
         <v>22</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="16">
         <v>22</v>
       </c>
@@ -4422,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16">
         <v>22</v>
       </c>
@@ -4458,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16">
         <v>22</v>
       </c>
@@ -4494,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16">
         <v>22</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
         <v>22</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16">
         <v>22</v>
       </c>
@@ -4602,7 +4612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
         <v>22</v>
       </c>
@@ -4638,7 +4648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16">
         <v>22</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
         <v>22</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="16">
         <v>22</v>
       </c>
@@ -4746,7 +4756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
         <v>22</v>
       </c>
@@ -4782,7 +4792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16">
         <v>22</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>22</v>
       </c>
@@ -4854,7 +4864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>22</v>
       </c>
@@ -4890,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
         <v>22</v>
       </c>
@@ -4926,7 +4936,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16">
         <v>22</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16">
         <v>22</v>
       </c>
@@ -4998,7 +5008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
         <v>22</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
         <v>22</v>
       </c>
@@ -5070,7 +5080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
         <v>22</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
         <v>22</v>
       </c>
@@ -5142,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
         <v>22</v>
       </c>
@@ -5178,7 +5188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="16">
         <v>22</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="16">
         <v>22</v>
       </c>
@@ -5250,7 +5260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="16">
         <v>22</v>
       </c>
@@ -5286,7 +5296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="16">
         <v>22</v>
       </c>
@@ -5322,7 +5332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="16">
         <v>22</v>
       </c>
@@ -5358,7 +5368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>22</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>22</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
         <v>22</v>
       </c>
@@ -5466,7 +5476,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="16">
         <v>22</v>
       </c>
@@ -5502,7 +5512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="16">
         <v>22</v>
       </c>
@@ -5538,7 +5548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="16">
         <v>22</v>
       </c>
@@ -5574,7 +5584,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="16">
         <v>22</v>
       </c>
@@ -5610,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="16">
         <v>22</v>
       </c>
@@ -5646,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="16">
         <v>22</v>
       </c>
@@ -5682,7 +5692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="16">
         <v>22</v>
       </c>
@@ -5718,7 +5728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="16">
         <v>22</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="16">
         <v>22</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="16">
         <v>22</v>
       </c>
@@ -5826,7 +5836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="16">
         <v>22</v>
       </c>
@@ -5862,7 +5872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="16">
         <v>22</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="16">
         <v>22</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="16">
         <v>22</v>
       </c>
@@ -5970,7 +5980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="16">
         <v>22</v>
       </c>
@@ -6006,7 +6016,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="16">
         <v>22</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="16">
         <v>22</v>
       </c>
@@ -6078,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16">
         <v>22</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16">
         <v>22</v>
       </c>
@@ -6150,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16">
         <v>22</v>
       </c>
@@ -6186,7 +6196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="16">
         <v>22</v>
       </c>
@@ -6222,7 +6232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="16" t="s">
         <v>63</v>
       </c>
@@ -6258,7 +6268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="16" t="s">
         <v>63</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="16" t="s">
         <v>63</v>
       </c>
@@ -6330,7 +6340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="16" t="s">
         <v>63</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="16" t="s">
         <v>63</v>
       </c>
@@ -6402,7 +6412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>23</v>
       </c>
@@ -6438,7 +6448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>23</v>
       </c>
@@ -6474,7 +6484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="16">
         <v>23</v>
       </c>
@@ -6510,7 +6520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16">
         <v>23</v>
       </c>
@@ -6546,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="16">
         <v>23</v>
       </c>
@@ -6582,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>23</v>
       </c>
@@ -6618,7 +6628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17">
         <v>23</v>
       </c>
@@ -6654,7 +6664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17">
         <v>23</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16">
         <v>23</v>
       </c>
@@ -6726,7 +6736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="16">
         <v>23</v>
       </c>
@@ -6762,7 +6772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17">
         <v>23</v>
       </c>
@@ -6798,7 +6808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>23</v>
       </c>
@@ -6834,7 +6844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>23</v>
       </c>
@@ -6870,7 +6880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>23</v>
       </c>
@@ -6906,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16">
         <v>23</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>77</v>
       </c>
@@ -6978,7 +6988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>77</v>
       </c>
@@ -7014,7 +7024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>23</v>
       </c>
@@ -7050,7 +7060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16">
         <v>23</v>
       </c>
@@ -7086,7 +7096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>77</v>
       </c>
@@ -7122,7 +7132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="16">
         <v>23</v>
       </c>
@@ -7158,7 +7168,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="16" t="s">
         <v>77</v>
       </c>
@@ -7194,7 +7204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="16">
         <v>23</v>
       </c>
@@ -7230,7 +7240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="16">
         <v>23</v>
       </c>
@@ -7266,7 +7276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="16">
         <v>23</v>
       </c>
@@ -7302,7 +7312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="17">
         <v>23</v>
       </c>
@@ -7338,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>23</v>
       </c>
@@ -7374,7 +7384,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="16">
         <v>23</v>
       </c>
@@ -7410,7 +7420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="16">
         <v>23</v>
       </c>
@@ -7446,7 +7456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="16" t="s">
         <v>77</v>
       </c>
@@ -7482,7 +7492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="16">
         <v>23</v>
       </c>
@@ -7518,7 +7528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="16" t="s">
         <v>77</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="15">
         <v>23</v>
       </c>
@@ -7590,7 +7600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="15">
         <v>23</v>
       </c>
@@ -7626,7 +7636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="18">
         <v>23</v>
       </c>
@@ -7659,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="15">
         <v>23</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="15">
         <v>23</v>
       </c>
@@ -7731,7 +7741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="15">
         <v>23</v>
       </c>
@@ -7767,7 +7777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="15">
         <v>23</v>
       </c>
@@ -7803,7 +7813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>23</v>
       </c>
@@ -7839,7 +7849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="16">
         <v>23</v>
       </c>
@@ -7875,7 +7885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="16">
         <v>23</v>
       </c>
@@ -7911,7 +7921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16">
         <v>23</v>
       </c>
@@ -7947,7 +7957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="16">
         <v>23</v>
       </c>
@@ -7982,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="16">
         <v>23</v>
       </c>
@@ -8017,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="16">
         <v>23</v>
       </c>
@@ -8053,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="16">
         <v>23</v>
       </c>
@@ -8088,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="16">
         <v>23</v>
       </c>
@@ -8123,7 +8133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="16">
         <v>23</v>
       </c>
@@ -8157,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="17">
         <v>23</v>
       </c>
@@ -8193,7 +8203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="16">
         <v>23</v>
       </c>
@@ -8229,7 +8239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="16">
         <v>23</v>
       </c>
@@ -8265,7 +8275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18">
         <v>23</v>
       </c>
@@ -8301,7 +8311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="16">
         <v>23</v>
       </c>
@@ -8337,7 +8347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="16">
         <v>23</v>
       </c>
@@ -8373,7 +8383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="16">
         <v>23</v>
       </c>
@@ -8409,7 +8419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="16">
         <v>23</v>
       </c>
@@ -8445,7 +8455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="16">
         <v>23</v>
       </c>
@@ -8479,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="16">
         <v>23</v>
       </c>
@@ -8515,7 +8525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="16">
         <v>23</v>
       </c>
@@ -8551,7 +8561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="16">
         <v>23</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="17">
         <v>23</v>
       </c>
@@ -8623,7 +8633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>23</v>
       </c>
@@ -8659,7 +8669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="16">
         <v>23</v>
       </c>
@@ -8695,7 +8705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="17">
         <v>23</v>
       </c>
@@ -8731,7 +8741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="16">
         <v>23</v>
       </c>
@@ -8767,7 +8777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="17">
         <v>23</v>
       </c>
@@ -8803,7 +8813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="17">
         <v>23</v>
       </c>
@@ -8839,7 +8849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="16">
         <v>23</v>
       </c>
@@ -8875,7 +8885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="17">
         <v>23</v>
       </c>
@@ -8911,7 +8921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="17">
         <v>23</v>
       </c>
@@ -8947,7 +8957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="16">
         <v>23</v>
       </c>
@@ -8983,7 +8993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="16">
         <v>23</v>
       </c>
@@ -9019,7 +9029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="16">
         <v>23</v>
       </c>
@@ -9055,7 +9065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="16">
         <v>23</v>
       </c>
@@ -9091,7 +9101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="17">
         <v>23</v>
       </c>
@@ -9127,7 +9137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="16">
         <v>23</v>
       </c>
@@ -9163,7 +9173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="16">
         <v>23</v>
       </c>
@@ -9199,7 +9209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="17">
         <v>23</v>
       </c>
@@ -9235,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="15">
         <v>23</v>
       </c>
@@ -9271,7 +9281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="16">
         <v>23</v>
       </c>
@@ -9307,7 +9317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="16" t="s">
         <v>77</v>
       </c>
@@ -9343,7 +9353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="16">
         <v>23</v>
       </c>
@@ -9379,7 +9389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="15" t="s">
         <v>77</v>
       </c>
@@ -9415,7 +9425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="17">
         <v>23</v>
       </c>
@@ -9451,7 +9461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="16">
         <v>23</v>
       </c>
@@ -9487,7 +9497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="16">
         <v>23</v>
       </c>
@@ -9523,7 +9533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="16">
         <v>23</v>
       </c>
@@ -9559,7 +9569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="16" t="s">
         <v>77</v>
       </c>
@@ -9595,7 +9605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="16">
         <v>23</v>
       </c>
@@ -9631,7 +9641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="16">
         <v>23</v>
       </c>
@@ -9667,7 +9677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="16" t="s">
         <v>77</v>
       </c>
@@ -9703,7 +9713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="16" t="s">
         <v>77</v>
       </c>
@@ -9739,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="16" t="s">
         <v>77</v>
       </c>
@@ -9775,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="16" t="s">
         <v>77</v>
       </c>
@@ -9811,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>77</v>
       </c>
@@ -9847,7 +9857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="16" t="s">
         <v>77</v>
       </c>
@@ -9883,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="16" t="s">
         <v>77</v>
       </c>
@@ -9919,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="s">
         <v>77</v>
       </c>
@@ -9955,7 +9965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="16" t="s">
         <v>77</v>
       </c>
@@ -9991,7 +10001,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="15" t="s">
         <v>111</v>
       </c>
@@ -10027,7 +10037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="15" t="s">
         <v>111</v>
       </c>
@@ -10063,7 +10073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="15" t="s">
         <v>111</v>
       </c>
@@ -10099,7 +10109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="15" t="s">
         <v>111</v>
       </c>
@@ -10135,7 +10145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="15" t="s">
         <v>111</v>
       </c>
@@ -10171,7 +10181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="15" t="s">
         <v>111</v>
       </c>
@@ -10207,7 +10217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="15" t="s">
         <v>111</v>
       </c>
@@ -10272,14 +10282,14 @@
         <v>24</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="J218" s="21">
         <f>VLOOKUP(Table4[[#This Row],[TRIAL_SHORT]], 'Trials And Locations'!$E$1:$F$100000, 2, FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="15" t="s">
         <v>111</v>
       </c>
@@ -10315,7 +10325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="15" t="s">
         <v>111</v>
       </c>
@@ -10351,7 +10361,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="15" t="s">
         <v>111</v>
       </c>
@@ -10387,7 +10397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="15" t="s">
         <v>111</v>
       </c>
@@ -10423,7 +10433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="15" t="s">
         <v>111</v>
       </c>
@@ -10459,7 +10469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="15" t="s">
         <v>111</v>
       </c>
@@ -10495,7 +10505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="15" t="s">
         <v>111</v>
       </c>
@@ -10531,7 +10541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="15" t="s">
         <v>111</v>
       </c>
@@ -10567,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="15" t="s">
         <v>111</v>
       </c>
@@ -10603,7 +10613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="15" t="s">
         <v>111</v>
       </c>
@@ -10639,7 +10649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="15" t="s">
         <v>111</v>
       </c>
@@ -10675,7 +10685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="15" t="s">
         <v>111</v>
       </c>
@@ -10711,7 +10721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>111</v>
       </c>
@@ -10776,14 +10786,14 @@
         <v>48</v>
       </c>
       <c r="I232" s="10" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="J232" s="21">
         <f>VLOOKUP(Table4[[#This Row],[TRIAL_SHORT]], 'Trials And Locations'!$E$1:$F$100000, 2, FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="15" t="s">
         <v>111</v>
       </c>
@@ -10819,7 +10829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="15" t="s">
         <v>111</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="15" t="s">
         <v>111</v>
       </c>
@@ -10891,7 +10901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="15" t="s">
         <v>111</v>
       </c>
@@ -10927,7 +10937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="15" t="s">
         <v>111</v>
       </c>
@@ -10963,7 +10973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="15" t="s">
         <v>111</v>
       </c>
@@ -10999,7 +11009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="15" t="s">
         <v>111</v>
       </c>
@@ -11035,7 +11045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="15" t="s">
         <v>111</v>
       </c>
@@ -11071,7 +11081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="15" t="s">
         <v>111</v>
       </c>
@@ -11107,7 +11117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
         <v>111</v>
       </c>
@@ -11143,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
         <v>111</v>
       </c>
@@ -11179,7 +11189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
         <v>111</v>
       </c>
@@ -11215,7 +11225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
         <v>111</v>
       </c>
@@ -11251,7 +11261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
         <v>111</v>
       </c>
@@ -11287,7 +11297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
         <v>111</v>
       </c>
@@ -11323,7 +11333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
         <v>111</v>
       </c>
@@ -11359,7 +11369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
         <v>111</v>
       </c>
@@ -11395,7 +11405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="15" t="s">
         <v>111</v>
       </c>
@@ -11431,7 +11441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="15" t="s">
         <v>111</v>
       </c>
@@ -11467,7 +11477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="15" t="s">
         <v>111</v>
       </c>
@@ -11503,7 +11513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="15" t="s">
         <v>111</v>
       </c>
@@ -11539,7 +11549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>111</v>
       </c>
@@ -11575,7 +11585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="s">
         <v>111</v>
       </c>
@@ -11611,7 +11621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="15" t="s">
         <v>111</v>
       </c>
@@ -11647,7 +11657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="15" t="s">
         <v>111</v>
       </c>
@@ -11683,7 +11693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="15" t="s">
         <v>111</v>
       </c>
@@ -11719,7 +11729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="15" t="s">
         <v>111</v>
       </c>
@@ -11755,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="s">
         <v>111</v>
       </c>
@@ -11791,7 +11801,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="15" t="s">
         <v>111</v>
       </c>
@@ -11827,7 +11837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>111</v>
       </c>
@@ -11863,7 +11873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="15" t="s">
         <v>111</v>
       </c>
@@ -11928,14 +11938,14 @@
         <v>48</v>
       </c>
       <c r="I264" s="10" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="J264" s="21">
         <f>VLOOKUP(Table4[[#This Row],[TRIAL_SHORT]], 'Trials And Locations'!$E$1:$F$100000, 2, FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="15" t="s">
         <v>111</v>
       </c>
@@ -11971,7 +11981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="s">
         <v>111</v>
       </c>
@@ -12007,7 +12017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="15" t="s">
         <v>111</v>
       </c>
@@ -12043,7 +12053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="15" t="s">
         <v>111</v>
       </c>
@@ -12079,7 +12089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="15" t="s">
         <v>111</v>
       </c>
@@ -12115,7 +12125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="15" t="s">
         <v>111</v>
       </c>
@@ -12151,7 +12161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="15" t="s">
         <v>111</v>
       </c>
@@ -12187,7 +12197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>111</v>
       </c>
@@ -12223,7 +12233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="15" t="s">
         <v>111</v>
       </c>
@@ -12288,14 +12298,14 @@
         <v>48</v>
       </c>
       <c r="I274" s="10" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="J274" s="21">
         <f>VLOOKUP(Table4[[#This Row],[TRIAL_SHORT]], 'Trials And Locations'!$E$1:$F$100000, 2, FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="15" t="s">
         <v>111</v>
       </c>
@@ -12331,7 +12341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="15" t="s">
         <v>111</v>
       </c>
@@ -12367,7 +12377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="15" t="s">
         <v>111</v>
       </c>
@@ -12403,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="15" t="s">
         <v>111</v>
       </c>
@@ -12439,7 +12449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="15" t="s">
         <v>111</v>
       </c>
@@ -12475,7 +12485,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>111</v>
       </c>
@@ -12511,7 +12521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="15" t="s">
         <v>111</v>
       </c>
@@ -12547,7 +12557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="15" t="s">
         <v>111</v>
       </c>
@@ -12583,7 +12593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="15" t="s">
         <v>111</v>
       </c>
@@ -12648,14 +12658,14 @@
         <v>48</v>
       </c>
       <c r="I284" s="10" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="J284" s="21">
         <f>VLOOKUP(Table4[[#This Row],[TRIAL_SHORT]], 'Trials And Locations'!$E$1:$F$100000, 2, FALSE)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="15" t="s">
         <v>111</v>
       </c>
@@ -12691,7 +12701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="15"/>
       <c r="B286" s="7"/>
       <c r="C286" s="8"/>
@@ -12703,7 +12713,7 @@
       <c r="I286" s="10"/>
       <c r="J286" s="7"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="15"/>
       <c r="B287" s="7"/>
       <c r="C287" s="8"/>
@@ -12715,7 +12725,7 @@
       <c r="I287" s="10"/>
       <c r="J287" s="7"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="15"/>
       <c r="B288" s="7"/>
       <c r="C288" s="8"/>
@@ -12727,7 +12737,7 @@
       <c r="I288" s="10"/>
       <c r="J288" s="7"/>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="15"/>
       <c r="B289" s="7"/>
       <c r="C289" s="8"/>
@@ -12739,7 +12749,7 @@
       <c r="I289" s="10"/>
       <c r="J289" s="7"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="15"/>
       <c r="B290" s="7"/>
       <c r="C290" s="8"/>
@@ -12751,7 +12761,7 @@
       <c r="I290" s="10"/>
       <c r="J290" s="7"/>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="15"/>
       <c r="B291" s="7"/>
       <c r="C291" s="8"/>
@@ -12763,7 +12773,7 @@
       <c r="I291" s="10"/>
       <c r="J291" s="7"/>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="15"/>
       <c r="B292" s="7"/>
       <c r="C292" s="8"/>
@@ -12775,7 +12785,7 @@
       <c r="I292" s="10"/>
       <c r="J292" s="7"/>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="15"/>
       <c r="B293" s="7"/>
       <c r="C293" s="8"/>
@@ -12787,7 +12797,7 @@
       <c r="I293" s="10"/>
       <c r="J293" s="7"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="15"/>
       <c r="B294" s="7"/>
       <c r="C294" s="8"/>
@@ -12799,7 +12809,7 @@
       <c r="I294" s="10"/>
       <c r="J294" s="7"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="15"/>
       <c r="B295" s="7"/>
       <c r="C295" s="8"/>
@@ -12811,7 +12821,7 @@
       <c r="I295" s="10"/>
       <c r="J295" s="7"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="15"/>
       <c r="B296" s="7"/>
       <c r="C296" s="8"/>
@@ -12823,7 +12833,7 @@
       <c r="I296" s="10"/>
       <c r="J296" s="7"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="15"/>
       <c r="B297" s="7"/>
       <c r="C297" s="8"/>
@@ -12835,7 +12845,7 @@
       <c r="I297" s="10"/>
       <c r="J297" s="7"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="15"/>
       <c r="B298" s="7"/>
       <c r="C298" s="8"/>
@@ -12847,7 +12857,7 @@
       <c r="I298" s="10"/>
       <c r="J298" s="7"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="15"/>
       <c r="B299" s="7"/>
       <c r="C299" s="8"/>
@@ -12859,7 +12869,7 @@
       <c r="I299" s="10"/>
       <c r="J299" s="7"/>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="15"/>
       <c r="B300" s="7"/>
       <c r="C300" s="8"/>
@@ -12871,7 +12881,7 @@
       <c r="I300" s="10"/>
       <c r="J300" s="7"/>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="15"/>
       <c r="B301" s="7"/>
       <c r="C301" s="8"/>
@@ -12883,7 +12893,7 @@
       <c r="I301" s="10"/>
       <c r="J301" s="7"/>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="15"/>
       <c r="B302" s="7"/>
       <c r="C302" s="8"/>
@@ -12895,7 +12905,7 @@
       <c r="I302" s="10"/>
       <c r="J302" s="7"/>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="15"/>
       <c r="B303" s="7"/>
       <c r="C303" s="8"/>
@@ -12907,7 +12917,7 @@
       <c r="I303" s="10"/>
       <c r="J303" s="7"/>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="15"/>
       <c r="B304" s="7"/>
       <c r="C304" s="8"/>
@@ -12919,7 +12929,7 @@
       <c r="I304" s="10"/>
       <c r="J304" s="7"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="15"/>
       <c r="B305" s="7"/>
       <c r="C305" s="8"/>
@@ -12931,7 +12941,7 @@
       <c r="I305" s="10"/>
       <c r="J305" s="7"/>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="15"/>
       <c r="B306" s="7"/>
       <c r="C306" s="8"/>
@@ -12943,7 +12953,7 @@
       <c r="I306" s="10"/>
       <c r="J306" s="7"/>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="15"/>
       <c r="B307" s="7"/>
       <c r="C307" s="8"/>
@@ -12955,7 +12965,7 @@
       <c r="I307" s="10"/>
       <c r="J307" s="7"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="15"/>
       <c r="B308" s="7"/>
       <c r="C308" s="8"/>
@@ -12967,7 +12977,7 @@
       <c r="I308" s="10"/>
       <c r="J308" s="7"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="15"/>
       <c r="B309" s="7"/>
       <c r="C309" s="8"/>
@@ -12979,7 +12989,7 @@
       <c r="I309" s="10"/>
       <c r="J309" s="7"/>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="15"/>
       <c r="B310" s="7"/>
       <c r="C310" s="8"/>
@@ -13870,7 +13880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF72BDF-E972-4DFC-8739-BD42FEEE886B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14287,23 +14297,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004985193A87153942845D241572937CE5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="41d807227133e919f3755c54a0ed2601">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff" xmlns:ns4="f703b2de-b014-43d1-91b4-4178b52ec481" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28768a436f2ded89381638814bc7efce" ns3:_="" ns4:_="">
     <xsd:import namespace="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff"/>
@@ -14544,25 +14537,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E2AB2F-6E1F-424C-8E97-B29CFF39A56D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309818C2-C029-41E7-90B5-C5C7A9CD1F23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3154782E-A8FB-4B5D-908B-67EB26D31F14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14579,4 +14571,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{309818C2-C029-41E7-90B5-C5C7A9CD1F23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="360d84ef-15ff-4e17-9c6b-a1028cb8e8ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80E2AB2F-6E1F-424C-8E97-B29CFF39A56D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>